--- a/Sistema Sipedy/Especificações Sistema de pedidos.xlsx
+++ b/Sistema Sipedy/Especificações Sistema de pedidos.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -266,7 +267,7 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,9 +279,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +794,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1017,7 @@
       <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="5"/>
@@ -1150,4 +1148,23 @@
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="142.140625"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Sistema Sipedy/Especificações Sistema de pedidos.xlsx
+++ b/Sistema Sipedy/Especificações Sistema de pedidos.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Sistemas de pedidos V. 1.0</t>
   </si>
@@ -185,13 +185,40 @@
   </si>
   <si>
     <t xml:space="preserve">Email de cobrança</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exibe cards com agendamentos do dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exibe o dia e permite avançar, retroceder e selecionar o dia do mês (calendário)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novo, editar e excluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card especial com detalhamento do agendamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite selecionar o horário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cards com anotações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos ou filtro por clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card especial com detalhes da anotação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -208,6 +235,13 @@
       <name val="Calibri"/>
       <color theme="0"/>
       <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,7 +301,7 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,6 +318,7 @@
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,14 +1192,65 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="142.140625"/>
+    <col customWidth="1" min="1" max="1" width="125.28125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="16.5">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>